--- a/Step_1-4_sheet_of_Session_10.xlsx
+++ b/Step_1-4_sheet_of_Session_10.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9120" activeTab="4"/>
+    <workbookView windowWidth="22188" windowHeight="9120" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Reverse a number" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="63">
   <si>
     <t>Problem: Find the reverse of a number between 0 to 99999. Write a function to achieve this.</t>
   </si>
@@ -234,6 +234,39 @@
     <t>FORMULAE:
 1) Celsius to Fahrenheit --&gt; (Temp in Celsius x 9/5) +32
 2) Fahrenheit to celsius --&gt; (Temp in Fahrenheit - 32) x 5/9</t>
+  </si>
+  <si>
+    <t>Take the input from user and store into a variable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">make two function which will do the convertion based on the standard formula </t>
+  </si>
+  <si>
+    <t>for converting temp to fehrenheit and fehrenheit to temp</t>
+  </si>
+  <si>
+    <t>and return the converted value to the display</t>
+  </si>
+  <si>
+    <t>the input temperature value are valid numerical values.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">temperature ranges between in daily life </t>
+  </si>
+  <si>
+    <t>temp -273.15 temp to 1000temp</t>
+  </si>
+  <si>
+    <t>fehrenheit -459.67 to 1832 F</t>
+  </si>
+  <si>
+    <t>passed</t>
+  </si>
+  <si>
+    <t>uy</t>
+  </si>
+  <si>
+    <t>NaN</t>
   </si>
   <si>
     <t>Problem: Write a function to 1. Calculate Simple Interest &amp; 2. Calculate Compound Interest, based on principal amount specified</t>
@@ -1140,7 +1173,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1190,6 +1223,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1749,13 +1787,13 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:5">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="60" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="65" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1763,19 +1801,19 @@
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="39"/>
+      <c r="D2" s="44"/>
       <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="61"/>
-      <c r="E3" s="34" t="s">
+      <c r="D3" s="66"/>
+      <c r="E3" s="39" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1783,64 +1821,64 @@
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="61"/>
-      <c r="E4" s="35"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="40"/>
     </row>
     <row r="5" customHeight="1" spans="1:26">
-      <c r="A5" s="34"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="41"/>
-      <c r="R5" s="41"/>
-      <c r="S5" s="41"/>
-      <c r="T5" s="41"/>
-      <c r="U5" s="41"/>
-      <c r="V5" s="41"/>
-      <c r="W5" s="41"/>
-      <c r="X5" s="41"/>
-      <c r="Y5" s="41"/>
-      <c r="Z5" s="41"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="46"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="46"/>
+      <c r="U5" s="46"/>
+      <c r="V5" s="46"/>
+      <c r="W5" s="46"/>
+      <c r="X5" s="46"/>
+      <c r="Y5" s="46"/>
+      <c r="Z5" s="46"/>
     </row>
     <row r="6" customHeight="1" spans="1:26">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="64"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="41"/>
-      <c r="S6" s="41"/>
-      <c r="T6" s="41"/>
-      <c r="U6" s="41"/>
-      <c r="V6" s="41"/>
-      <c r="W6" s="41"/>
-      <c r="X6" s="41"/>
-      <c r="Y6" s="41"/>
-      <c r="Z6" s="41"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
+      <c r="Q6" s="46"/>
+      <c r="R6" s="46"/>
+      <c r="S6" s="46"/>
+      <c r="T6" s="46"/>
+      <c r="U6" s="46"/>
+      <c r="V6" s="46"/>
+      <c r="W6" s="46"/>
+      <c r="X6" s="46"/>
+      <c r="Y6" s="46"/>
+      <c r="Z6" s="46"/>
     </row>
     <row r="7" customHeight="1" spans="1:26">
       <c r="A7" s="8" t="s">
@@ -1848,181 +1886,181 @@
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="10"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="41"/>
-      <c r="T7" s="41"/>
-      <c r="U7" s="41"/>
-      <c r="V7" s="41"/>
-      <c r="W7" s="41"/>
-      <c r="X7" s="41"/>
-      <c r="Y7" s="41"/>
-      <c r="Z7" s="41"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="46"/>
+      <c r="R7" s="46"/>
+      <c r="S7" s="46"/>
+      <c r="T7" s="46"/>
+      <c r="U7" s="46"/>
+      <c r="V7" s="46"/>
+      <c r="W7" s="46"/>
+      <c r="X7" s="46"/>
+      <c r="Y7" s="46"/>
+      <c r="Z7" s="46"/>
     </row>
     <row r="8" customHeight="1" spans="1:26">
       <c r="A8" s="11">
         <v>1</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="39" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="7"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="41"/>
-      <c r="R8" s="41"/>
-      <c r="S8" s="41"/>
-      <c r="T8" s="41"/>
-      <c r="U8" s="41"/>
-      <c r="V8" s="41"/>
-      <c r="W8" s="41"/>
-      <c r="X8" s="41"/>
-      <c r="Y8" s="41"/>
-      <c r="Z8" s="41"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="46"/>
+      <c r="R8" s="46"/>
+      <c r="S8" s="46"/>
+      <c r="T8" s="46"/>
+      <c r="U8" s="46"/>
+      <c r="V8" s="46"/>
+      <c r="W8" s="46"/>
+      <c r="X8" s="46"/>
+      <c r="Y8" s="46"/>
+      <c r="Z8" s="46"/>
     </row>
     <row r="9" customHeight="1" spans="1:26">
       <c r="A9" s="12">
         <v>2</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="39" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="7"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="41"/>
-      <c r="R9" s="41"/>
-      <c r="S9" s="41"/>
-      <c r="T9" s="41"/>
-      <c r="U9" s="41"/>
-      <c r="V9" s="41"/>
-      <c r="W9" s="41"/>
-      <c r="X9" s="41"/>
-      <c r="Y9" s="41"/>
-      <c r="Z9" s="41"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="46"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="46"/>
+      <c r="R9" s="46"/>
+      <c r="S9" s="46"/>
+      <c r="T9" s="46"/>
+      <c r="U9" s="46"/>
+      <c r="V9" s="46"/>
+      <c r="W9" s="46"/>
+      <c r="X9" s="46"/>
+      <c r="Y9" s="46"/>
+      <c r="Z9" s="46"/>
     </row>
     <row r="10" customHeight="1" spans="1:26">
       <c r="A10" s="12">
         <v>3</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="39" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="7"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="41"/>
-      <c r="R10" s="41"/>
-      <c r="S10" s="41"/>
-      <c r="T10" s="41"/>
-      <c r="U10" s="41"/>
-      <c r="V10" s="41"/>
-      <c r="W10" s="41"/>
-      <c r="X10" s="41"/>
-      <c r="Y10" s="41"/>
-      <c r="Z10" s="41"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="46"/>
+      <c r="P10" s="46"/>
+      <c r="Q10" s="46"/>
+      <c r="R10" s="46"/>
+      <c r="S10" s="46"/>
+      <c r="T10" s="46"/>
+      <c r="U10" s="46"/>
+      <c r="V10" s="46"/>
+      <c r="W10" s="46"/>
+      <c r="X10" s="46"/>
+      <c r="Y10" s="46"/>
+      <c r="Z10" s="46"/>
     </row>
     <row r="11" customHeight="1" spans="1:26">
       <c r="A11" s="12"/>
-      <c r="B11" s="34"/>
+      <c r="B11" s="39"/>
       <c r="C11" s="7"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="41"/>
-      <c r="R11" s="41"/>
-      <c r="S11" s="41"/>
-      <c r="T11" s="41"/>
-      <c r="U11" s="41"/>
-      <c r="V11" s="41"/>
-      <c r="W11" s="41"/>
-      <c r="X11" s="41"/>
-      <c r="Y11" s="41"/>
-      <c r="Z11" s="41"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="46"/>
+      <c r="P11" s="46"/>
+      <c r="Q11" s="46"/>
+      <c r="R11" s="46"/>
+      <c r="S11" s="46"/>
+      <c r="T11" s="46"/>
+      <c r="U11" s="46"/>
+      <c r="V11" s="46"/>
+      <c r="W11" s="46"/>
+      <c r="X11" s="46"/>
+      <c r="Y11" s="46"/>
+      <c r="Z11" s="46"/>
     </row>
     <row r="12" customHeight="1" spans="1:26">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="41"/>
-      <c r="Q12" s="41"/>
-      <c r="R12" s="41"/>
-      <c r="S12" s="41"/>
-      <c r="T12" s="41"/>
-      <c r="U12" s="41"/>
-      <c r="V12" s="41"/>
-      <c r="W12" s="41"/>
-      <c r="X12" s="41"/>
-      <c r="Y12" s="41"/>
-      <c r="Z12" s="41"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="46"/>
+      <c r="Q12" s="46"/>
+      <c r="R12" s="46"/>
+      <c r="S12" s="46"/>
+      <c r="T12" s="46"/>
+      <c r="U12" s="46"/>
+      <c r="V12" s="46"/>
+      <c r="W12" s="46"/>
+      <c r="X12" s="46"/>
+      <c r="Y12" s="46"/>
+      <c r="Z12" s="46"/>
     </row>
     <row r="13" customHeight="1" spans="1:26">
       <c r="A13" s="8" t="s">
@@ -2030,29 +2068,29 @@
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="7"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="41"/>
-      <c r="R13" s="41"/>
-      <c r="S13" s="41"/>
-      <c r="T13" s="41"/>
-      <c r="U13" s="41"/>
-      <c r="V13" s="41"/>
-      <c r="W13" s="41"/>
-      <c r="X13" s="41"/>
-      <c r="Y13" s="41"/>
-      <c r="Z13" s="41"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="46"/>
+      <c r="S13" s="46"/>
+      <c r="T13" s="46"/>
+      <c r="U13" s="46"/>
+      <c r="V13" s="46"/>
+      <c r="W13" s="46"/>
+      <c r="X13" s="46"/>
+      <c r="Y13" s="46"/>
+      <c r="Z13" s="46"/>
     </row>
     <row r="14" customHeight="1" spans="1:6">
       <c r="A14" s="13" t="s">
@@ -2064,11 +2102,11 @@
       <c r="C14" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="39"/>
+      <c r="D14" s="44"/>
       <c r="E14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="66"/>
+      <c r="F14" s="71"/>
     </row>
     <row r="15" customHeight="1" spans="1:4">
       <c r="A15" s="15" t="s">
@@ -2077,54 +2115,54 @@
       <c r="B15" s="2">
         <v>2</v>
       </c>
-      <c r="C15" s="37">
+      <c r="C15" s="42">
         <v>2</v>
       </c>
-      <c r="D15" s="39"/>
+      <c r="D15" s="44"/>
     </row>
     <row r="16" customHeight="1" spans="1:4">
       <c r="A16" s="17"/>
       <c r="B16" s="2">
         <v>1</v>
       </c>
-      <c r="C16" s="37">
+      <c r="C16" s="42">
         <v>1</v>
       </c>
-      <c r="D16" s="39"/>
+      <c r="D16" s="44"/>
     </row>
     <row r="17" customHeight="1" spans="1:4">
       <c r="A17" s="17"/>
       <c r="B17" s="2">
         <v>0</v>
       </c>
-      <c r="C17" s="37">
+      <c r="C17" s="42">
         <v>0</v>
       </c>
-      <c r="D17" s="39"/>
+      <c r="D17" s="44"/>
     </row>
     <row r="18" customHeight="1" spans="1:4">
       <c r="A18" s="17"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="39"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="44"/>
     </row>
     <row r="19" customHeight="1" spans="1:4">
       <c r="A19" s="17"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="39"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="44"/>
     </row>
     <row r="20" customHeight="1" spans="1:4">
       <c r="A20" s="17"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="39"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="44"/>
     </row>
     <row r="21" customHeight="1" spans="1:4">
       <c r="A21" s="19"/>
-      <c r="B21" s="67"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="39"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="44"/>
     </row>
     <row r="22" customHeight="1" spans="1:4">
       <c r="A22" s="15" t="s">
@@ -2136,7 +2174,7 @@
       <c r="C22" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="39"/>
+      <c r="D22" s="44"/>
     </row>
     <row r="23" customHeight="1" spans="1:4">
       <c r="A23" s="17"/>
@@ -2146,31 +2184,31 @@
       <c r="C23" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="39"/>
+      <c r="D23" s="44"/>
     </row>
     <row r="24" customHeight="1" spans="1:4">
       <c r="A24" s="17"/>
       <c r="B24" s="2"/>
       <c r="C24" s="25"/>
-      <c r="D24" s="39"/>
+      <c r="D24" s="44"/>
     </row>
     <row r="25" customHeight="1" spans="1:4">
       <c r="A25" s="17"/>
-      <c r="B25" s="33"/>
+      <c r="B25" s="38"/>
       <c r="C25" s="25"/>
-      <c r="D25" s="39"/>
+      <c r="D25" s="44"/>
     </row>
     <row r="26" customHeight="1" spans="1:4">
       <c r="A26" s="17"/>
       <c r="B26" s="2"/>
       <c r="C26" s="25"/>
-      <c r="D26" s="39"/>
+      <c r="D26" s="44"/>
     </row>
     <row r="27" customHeight="1" spans="1:4">
       <c r="A27" s="19"/>
-      <c r="B27" s="59"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="39"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2207,12 +2245,12 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="34" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="39" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2220,7 +2258,7 @@
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="39"/>
+      <c r="D2" s="44"/>
       <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
@@ -2229,7 +2267,7 @@
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="40"/>
+      <c r="D3" s="45"/>
       <c r="E3" s="7"/>
     </row>
     <row r="4" customHeight="1" spans="1:26">
@@ -2238,83 +2276,83 @@
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="41"/>
-      <c r="V4" s="41"/>
-      <c r="W4" s="41"/>
-      <c r="X4" s="41"/>
-      <c r="Y4" s="41"/>
-      <c r="Z4" s="41"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="46"/>
+      <c r="V4" s="46"/>
+      <c r="W4" s="46"/>
+      <c r="X4" s="46"/>
+      <c r="Y4" s="46"/>
+      <c r="Z4" s="46"/>
     </row>
     <row r="5" customHeight="1" spans="1:26">
-      <c r="A5" s="56"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
+      <c r="A5" s="61"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
       <c r="D5" s="12"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="41"/>
-      <c r="R5" s="41"/>
-      <c r="S5" s="41"/>
-      <c r="T5" s="41"/>
-      <c r="U5" s="41"/>
-      <c r="V5" s="41"/>
-      <c r="W5" s="41"/>
-      <c r="X5" s="41"/>
-      <c r="Y5" s="41"/>
-      <c r="Z5" s="41"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="46"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="46"/>
+      <c r="U5" s="46"/>
+      <c r="V5" s="46"/>
+      <c r="W5" s="46"/>
+      <c r="X5" s="46"/>
+      <c r="Y5" s="46"/>
+      <c r="Z5" s="46"/>
     </row>
     <row r="6" customHeight="1" spans="1:26">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="57"/>
+      <c r="D6" s="62"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="41"/>
-      <c r="S6" s="41"/>
-      <c r="T6" s="41"/>
-      <c r="U6" s="41"/>
-      <c r="V6" s="41"/>
-      <c r="W6" s="41"/>
-      <c r="X6" s="41"/>
-      <c r="Y6" s="41"/>
-      <c r="Z6" s="41"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
+      <c r="Q6" s="46"/>
+      <c r="R6" s="46"/>
+      <c r="S6" s="46"/>
+      <c r="T6" s="46"/>
+      <c r="U6" s="46"/>
+      <c r="V6" s="46"/>
+      <c r="W6" s="46"/>
+      <c r="X6" s="46"/>
+      <c r="Y6" s="46"/>
+      <c r="Z6" s="46"/>
     </row>
     <row r="7" customHeight="1" spans="1:26">
       <c r="A7" s="8" t="s">
@@ -2324,113 +2362,113 @@
       <c r="C7" s="10"/>
       <c r="D7" s="12"/>
       <c r="E7" s="7"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="41"/>
-      <c r="T7" s="41"/>
-      <c r="U7" s="41"/>
-      <c r="V7" s="41"/>
-      <c r="W7" s="41"/>
-      <c r="X7" s="41"/>
-      <c r="Y7" s="41"/>
-      <c r="Z7" s="41"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="46"/>
+      <c r="R7" s="46"/>
+      <c r="S7" s="46"/>
+      <c r="T7" s="46"/>
+      <c r="U7" s="46"/>
+      <c r="V7" s="46"/>
+      <c r="W7" s="46"/>
+      <c r="X7" s="46"/>
+      <c r="Y7" s="46"/>
+      <c r="Z7" s="46"/>
     </row>
     <row r="8" customHeight="1" spans="1:26">
       <c r="A8" s="12">
         <v>1</v>
       </c>
-      <c r="B8" s="34"/>
+      <c r="B8" s="39"/>
       <c r="C8" s="7"/>
       <c r="D8" s="12"/>
       <c r="E8" s="7"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="41"/>
-      <c r="R8" s="41"/>
-      <c r="S8" s="41"/>
-      <c r="T8" s="41"/>
-      <c r="U8" s="41"/>
-      <c r="V8" s="41"/>
-      <c r="W8" s="41"/>
-      <c r="X8" s="41"/>
-      <c r="Y8" s="41"/>
-      <c r="Z8" s="41"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="46"/>
+      <c r="R8" s="46"/>
+      <c r="S8" s="46"/>
+      <c r="T8" s="46"/>
+      <c r="U8" s="46"/>
+      <c r="V8" s="46"/>
+      <c r="W8" s="46"/>
+      <c r="X8" s="46"/>
+      <c r="Y8" s="46"/>
+      <c r="Z8" s="46"/>
     </row>
     <row r="9" customHeight="1" spans="1:26">
       <c r="A9" s="12">
         <v>2</v>
       </c>
-      <c r="B9" s="34"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="7"/>
       <c r="D9" s="12"/>
       <c r="E9" s="7"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="41"/>
-      <c r="R9" s="41"/>
-      <c r="S9" s="41"/>
-      <c r="T9" s="41"/>
-      <c r="U9" s="41"/>
-      <c r="V9" s="41"/>
-      <c r="W9" s="41"/>
-      <c r="X9" s="41"/>
-      <c r="Y9" s="41"/>
-      <c r="Z9" s="41"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="46"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="46"/>
+      <c r="R9" s="46"/>
+      <c r="S9" s="46"/>
+      <c r="T9" s="46"/>
+      <c r="U9" s="46"/>
+      <c r="V9" s="46"/>
+      <c r="W9" s="46"/>
+      <c r="X9" s="46"/>
+      <c r="Y9" s="46"/>
+      <c r="Z9" s="46"/>
     </row>
     <row r="10" customHeight="1" spans="1:26">
-      <c r="A10" s="34"/>
-      <c r="B10" s="34"/>
+      <c r="A10" s="39"/>
+      <c r="B10" s="39"/>
       <c r="C10" s="7"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="41"/>
-      <c r="R10" s="41"/>
-      <c r="S10" s="41"/>
-      <c r="T10" s="41"/>
-      <c r="U10" s="41"/>
-      <c r="V10" s="41"/>
-      <c r="W10" s="41"/>
-      <c r="X10" s="41"/>
-      <c r="Y10" s="41"/>
-      <c r="Z10" s="41"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="46"/>
+      <c r="P10" s="46"/>
+      <c r="Q10" s="46"/>
+      <c r="R10" s="46"/>
+      <c r="S10" s="46"/>
+      <c r="T10" s="46"/>
+      <c r="U10" s="46"/>
+      <c r="V10" s="46"/>
+      <c r="W10" s="46"/>
+      <c r="X10" s="46"/>
+      <c r="Y10" s="46"/>
+      <c r="Z10" s="46"/>
     </row>
     <row r="11" customHeight="1" spans="1:26">
       <c r="A11" s="8" t="s">
@@ -2438,28 +2476,28 @@
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="7"/>
-      <c r="D11" s="34"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="41"/>
-      <c r="R11" s="41"/>
-      <c r="S11" s="41"/>
-      <c r="T11" s="41"/>
-      <c r="U11" s="41"/>
-      <c r="V11" s="41"/>
-      <c r="W11" s="41"/>
-      <c r="X11" s="41"/>
-      <c r="Y11" s="41"/>
-      <c r="Z11" s="41"/>
+      <c r="D11" s="39"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="46"/>
+      <c r="P11" s="46"/>
+      <c r="Q11" s="46"/>
+      <c r="R11" s="46"/>
+      <c r="S11" s="46"/>
+      <c r="T11" s="46"/>
+      <c r="U11" s="46"/>
+      <c r="V11" s="46"/>
+      <c r="W11" s="46"/>
+      <c r="X11" s="46"/>
+      <c r="Y11" s="46"/>
+      <c r="Z11" s="46"/>
     </row>
     <row r="12" customHeight="1" spans="1:26">
       <c r="A12" s="13" t="s">
@@ -2471,140 +2509,140 @@
       <c r="C12" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="34"/>
+      <c r="D12" s="39"/>
       <c r="E12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="41"/>
-      <c r="Q12" s="41"/>
-      <c r="R12" s="41"/>
-      <c r="S12" s="41"/>
-      <c r="T12" s="41"/>
-      <c r="U12" s="41"/>
-      <c r="V12" s="41"/>
-      <c r="W12" s="41"/>
-      <c r="X12" s="41"/>
-      <c r="Y12" s="41"/>
-      <c r="Z12" s="41"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="46"/>
+      <c r="Q12" s="46"/>
+      <c r="R12" s="46"/>
+      <c r="S12" s="46"/>
+      <c r="T12" s="46"/>
+      <c r="U12" s="46"/>
+      <c r="V12" s="46"/>
+      <c r="W12" s="46"/>
+      <c r="X12" s="46"/>
+      <c r="Y12" s="46"/>
+      <c r="Z12" s="46"/>
     </row>
     <row r="13" customHeight="1" spans="1:26">
       <c r="A13" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="34"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="41"/>
-      <c r="R13" s="41"/>
-      <c r="S13" s="41"/>
-      <c r="T13" s="41"/>
-      <c r="U13" s="41"/>
-      <c r="V13" s="41"/>
-      <c r="W13" s="41"/>
-      <c r="X13" s="41"/>
-      <c r="Y13" s="41"/>
-      <c r="Z13" s="41"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="39"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="46"/>
+      <c r="S13" s="46"/>
+      <c r="T13" s="46"/>
+      <c r="U13" s="46"/>
+      <c r="V13" s="46"/>
+      <c r="W13" s="46"/>
+      <c r="X13" s="46"/>
+      <c r="Y13" s="46"/>
+      <c r="Z13" s="46"/>
     </row>
     <row r="14" customHeight="1" spans="1:4">
       <c r="A14" s="17"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="39"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="44"/>
     </row>
     <row r="15" customHeight="1" spans="1:4">
       <c r="A15" s="17"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="39"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="44"/>
     </row>
     <row r="16" customHeight="1" spans="1:4">
       <c r="A16" s="17"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="39"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="44"/>
     </row>
     <row r="17" customHeight="1" spans="1:4">
       <c r="A17" s="17"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="39"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="44"/>
     </row>
     <row r="18" customHeight="1" spans="1:4">
       <c r="A18" s="17"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="39"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="44"/>
     </row>
     <row r="19" customHeight="1" spans="1:4">
       <c r="A19" s="17"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="39"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="44"/>
     </row>
     <row r="20" customHeight="1" spans="1:4">
       <c r="A20" s="17"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="39"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="44"/>
     </row>
     <row r="21" customHeight="1" spans="1:4">
       <c r="A21" s="19"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="39"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="44"/>
     </row>
     <row r="22" customHeight="1" spans="1:4">
       <c r="A22" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="40"/>
+      <c r="B22" s="45"/>
       <c r="C22" s="25"/>
-      <c r="D22" s="39"/>
+      <c r="D22" s="44"/>
     </row>
     <row r="23" customHeight="1" spans="1:4">
       <c r="A23" s="17"/>
-      <c r="B23" s="40"/>
+      <c r="B23" s="45"/>
       <c r="C23" s="25"/>
-      <c r="D23" s="39"/>
+      <c r="D23" s="44"/>
     </row>
     <row r="24" customHeight="1" spans="1:4">
       <c r="A24" s="17"/>
       <c r="B24" s="2"/>
       <c r="C24" s="25"/>
-      <c r="D24" s="39"/>
+      <c r="D24" s="44"/>
     </row>
     <row r="25" customHeight="1" spans="1:4">
       <c r="A25" s="17"/>
       <c r="B25" s="2"/>
       <c r="C25" s="25"/>
-      <c r="D25" s="39"/>
+      <c r="D25" s="44"/>
     </row>
     <row r="26" customHeight="1" spans="1:4">
       <c r="A26" s="19"/>
-      <c r="B26" s="59"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="39"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2640,13 +2678,13 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:5">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="47" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="52" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2662,27 +2700,27 @@
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="39"/>
+      <c r="D3" s="44"/>
       <c r="E3" s="7"/>
     </row>
     <row r="4" customHeight="1" spans="1:4">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="39"/>
+      <c r="D4" s="44"/>
     </row>
     <row r="5" customHeight="1" spans="1:4">
-      <c r="A5" s="34"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="39"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="44"/>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="39"/>
-      <c r="F6" s="48"/>
+      <c r="D6" s="44"/>
+      <c r="F6" s="53"/>
     </row>
     <row r="7" customHeight="1" spans="1:4">
       <c r="A7" s="8" t="s">
@@ -2690,38 +2728,38 @@
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="10"/>
-      <c r="D7" s="39"/>
+      <c r="D7" s="44"/>
     </row>
     <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="11">
         <v>1</v>
       </c>
-      <c r="B8" s="34"/>
+      <c r="B8" s="39"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="49"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="54"/>
     </row>
     <row r="9" customHeight="1" spans="1:4">
       <c r="A9" s="12">
         <v>2</v>
       </c>
-      <c r="B9" s="34"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="7"/>
-      <c r="D9" s="39"/>
+      <c r="D9" s="44"/>
     </row>
     <row r="10" customHeight="1" spans="1:5">
       <c r="A10" s="12">
         <v>3</v>
       </c>
-      <c r="B10" s="34"/>
+      <c r="B10" s="39"/>
       <c r="C10" s="7"/>
-      <c r="E10" s="49"/>
+      <c r="E10" s="54"/>
     </row>
     <row r="11" customHeight="1" spans="1:5">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
-      <c r="E11" s="49"/>
+      <c r="E11" s="54"/>
     </row>
     <row r="12" customHeight="1" spans="1:3">
       <c r="A12" s="7"/>
@@ -2753,38 +2791,38 @@
       <c r="A15" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="50"/>
-      <c r="C15" s="37"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="42"/>
     </row>
     <row r="16" customHeight="1" spans="1:3">
       <c r="A16" s="17"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="37"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="42"/>
     </row>
     <row r="17" customHeight="1" spans="1:3">
       <c r="A17" s="17"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="37"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="42"/>
     </row>
     <row r="18" customHeight="1" spans="1:3">
       <c r="A18" s="17"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="37"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="42"/>
     </row>
     <row r="19" customHeight="1" spans="1:3">
       <c r="A19" s="17"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="37"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="42"/>
     </row>
     <row r="20" customHeight="1" spans="1:3">
       <c r="A20" s="17"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="37"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="42"/>
     </row>
     <row r="21" customHeight="1" spans="1:3">
       <c r="A21" s="19"/>
-      <c r="B21" s="52"/>
-      <c r="C21" s="46"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="51"/>
     </row>
     <row r="22" customHeight="1" spans="1:3">
       <c r="A22" s="15" t="s">
@@ -2800,7 +2838,7 @@
     </row>
     <row r="24" customHeight="1" spans="1:3">
       <c r="A24" s="17"/>
-      <c r="B24" s="53"/>
+      <c r="B24" s="58"/>
       <c r="C24" s="25"/>
     </row>
     <row r="25" customHeight="1" spans="1:3">
@@ -2815,8 +2853,8 @@
     </row>
     <row r="27" customHeight="1" spans="1:3">
       <c r="A27" s="19"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="55"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2853,12 +2891,12 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="39" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="44" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2866,7 +2904,7 @@
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="39"/>
+      <c r="D2" s="44"/>
       <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
@@ -2875,7 +2913,7 @@
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="40"/>
+      <c r="D3" s="45"/>
       <c r="E3" s="7"/>
     </row>
     <row r="4" customHeight="1" spans="1:5">
@@ -2886,30 +2924,30 @@
       <c r="E4" s="7"/>
     </row>
     <row r="5" customHeight="1" spans="1:26">
-      <c r="A5" s="34"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
       <c r="D5" s="12"/>
       <c r="E5" s="7"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="41"/>
-      <c r="R5" s="41"/>
-      <c r="S5" s="41"/>
-      <c r="T5" s="41"/>
-      <c r="U5" s="41"/>
-      <c r="V5" s="41"/>
-      <c r="W5" s="41"/>
-      <c r="X5" s="41"/>
-      <c r="Y5" s="41"/>
-      <c r="Z5" s="41"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="46"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="46"/>
+      <c r="U5" s="46"/>
+      <c r="V5" s="46"/>
+      <c r="W5" s="46"/>
+      <c r="X5" s="46"/>
+      <c r="Y5" s="46"/>
+      <c r="Z5" s="46"/>
     </row>
     <row r="6" customHeight="1" spans="1:26">
       <c r="A6" s="4" t="s">
@@ -2917,25 +2955,25 @@
       </c>
       <c r="D6" s="24"/>
       <c r="E6" s="2"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="41"/>
-      <c r="S6" s="41"/>
-      <c r="T6" s="41"/>
-      <c r="U6" s="41"/>
-      <c r="V6" s="41"/>
-      <c r="W6" s="41"/>
-      <c r="X6" s="41"/>
-      <c r="Y6" s="41"/>
-      <c r="Z6" s="41"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
+      <c r="Q6" s="46"/>
+      <c r="R6" s="46"/>
+      <c r="S6" s="46"/>
+      <c r="T6" s="46"/>
+      <c r="U6" s="46"/>
+      <c r="V6" s="46"/>
+      <c r="W6" s="46"/>
+      <c r="X6" s="46"/>
+      <c r="Y6" s="46"/>
+      <c r="Z6" s="46"/>
     </row>
     <row r="7" customHeight="1" spans="1:26">
       <c r="A7" s="8" t="s">
@@ -2945,135 +2983,135 @@
       <c r="C7" s="10"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="41"/>
-      <c r="T7" s="41"/>
-      <c r="U7" s="41"/>
-      <c r="V7" s="41"/>
-      <c r="W7" s="41"/>
-      <c r="X7" s="41"/>
-      <c r="Y7" s="41"/>
-      <c r="Z7" s="41"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="46"/>
+      <c r="R7" s="46"/>
+      <c r="S7" s="46"/>
+      <c r="T7" s="46"/>
+      <c r="U7" s="46"/>
+      <c r="V7" s="46"/>
+      <c r="W7" s="46"/>
+      <c r="X7" s="46"/>
+      <c r="Y7" s="46"/>
+      <c r="Z7" s="46"/>
     </row>
     <row r="8" customHeight="1" spans="1:26">
-      <c r="A8" s="42">
+      <c r="A8" s="47">
         <v>1</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="44"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="49"/>
       <c r="D8" s="12"/>
       <c r="E8" s="7"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="41"/>
-      <c r="R8" s="41"/>
-      <c r="S8" s="41"/>
-      <c r="T8" s="41"/>
-      <c r="U8" s="41"/>
-      <c r="V8" s="41"/>
-      <c r="W8" s="41"/>
-      <c r="X8" s="41"/>
-      <c r="Y8" s="41"/>
-      <c r="Z8" s="41"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="46"/>
+      <c r="R8" s="46"/>
+      <c r="S8" s="46"/>
+      <c r="T8" s="46"/>
+      <c r="U8" s="46"/>
+      <c r="V8" s="46"/>
+      <c r="W8" s="46"/>
+      <c r="X8" s="46"/>
+      <c r="Y8" s="46"/>
+      <c r="Z8" s="46"/>
     </row>
     <row r="9" customHeight="1" spans="1:26">
       <c r="A9" s="12">
         <v>2</v>
       </c>
-      <c r="B9" s="34"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="7"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="41"/>
-      <c r="R9" s="41"/>
-      <c r="S9" s="41"/>
-      <c r="T9" s="41"/>
-      <c r="U9" s="41"/>
-      <c r="V9" s="41"/>
-      <c r="W9" s="41"/>
-      <c r="X9" s="41"/>
-      <c r="Y9" s="41"/>
-      <c r="Z9" s="41"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="46"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="46"/>
+      <c r="R9" s="46"/>
+      <c r="S9" s="46"/>
+      <c r="T9" s="46"/>
+      <c r="U9" s="46"/>
+      <c r="V9" s="46"/>
+      <c r="W9" s="46"/>
+      <c r="X9" s="46"/>
+      <c r="Y9" s="46"/>
+      <c r="Z9" s="46"/>
     </row>
     <row r="10" customHeight="1" spans="1:26">
-      <c r="A10" s="34"/>
-      <c r="B10" s="34"/>
+      <c r="A10" s="39"/>
+      <c r="B10" s="39"/>
       <c r="C10" s="7"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="41"/>
-      <c r="R10" s="41"/>
-      <c r="S10" s="41"/>
-      <c r="T10" s="41"/>
-      <c r="U10" s="41"/>
-      <c r="V10" s="41"/>
-      <c r="W10" s="41"/>
-      <c r="X10" s="41"/>
-      <c r="Y10" s="41"/>
-      <c r="Z10" s="41"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="46"/>
+      <c r="P10" s="46"/>
+      <c r="Q10" s="46"/>
+      <c r="R10" s="46"/>
+      <c r="S10" s="46"/>
+      <c r="T10" s="46"/>
+      <c r="U10" s="46"/>
+      <c r="V10" s="46"/>
+      <c r="W10" s="46"/>
+      <c r="X10" s="46"/>
+      <c r="Y10" s="46"/>
+      <c r="Z10" s="46"/>
     </row>
     <row r="11" customHeight="1" spans="1:26">
-      <c r="A11" s="34"/>
-      <c r="B11" s="34"/>
+      <c r="A11" s="39"/>
+      <c r="B11" s="39"/>
       <c r="C11" s="7"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="41"/>
-      <c r="R11" s="41"/>
-      <c r="S11" s="41"/>
-      <c r="T11" s="41"/>
-      <c r="U11" s="41"/>
-      <c r="V11" s="41"/>
-      <c r="W11" s="41"/>
-      <c r="X11" s="41"/>
-      <c r="Y11" s="41"/>
-      <c r="Z11" s="41"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="46"/>
+      <c r="P11" s="46"/>
+      <c r="Q11" s="46"/>
+      <c r="R11" s="46"/>
+      <c r="S11" s="46"/>
+      <c r="T11" s="46"/>
+      <c r="U11" s="46"/>
+      <c r="V11" s="46"/>
+      <c r="W11" s="46"/>
+      <c r="X11" s="46"/>
+      <c r="Y11" s="46"/>
+      <c r="Z11" s="46"/>
     </row>
     <row r="12" customHeight="1" spans="1:26">
       <c r="A12" s="8" t="s">
@@ -3081,29 +3119,29 @@
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="7"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="41"/>
-      <c r="Q12" s="41"/>
-      <c r="R12" s="41"/>
-      <c r="S12" s="41"/>
-      <c r="T12" s="41"/>
-      <c r="U12" s="41"/>
-      <c r="V12" s="41"/>
-      <c r="W12" s="41"/>
-      <c r="X12" s="41"/>
-      <c r="Y12" s="41"/>
-      <c r="Z12" s="41"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="46"/>
+      <c r="Q12" s="46"/>
+      <c r="R12" s="46"/>
+      <c r="S12" s="46"/>
+      <c r="T12" s="46"/>
+      <c r="U12" s="46"/>
+      <c r="V12" s="46"/>
+      <c r="W12" s="46"/>
+      <c r="X12" s="46"/>
+      <c r="Y12" s="46"/>
+      <c r="Z12" s="46"/>
     </row>
     <row r="13" customHeight="1" spans="1:5">
       <c r="A13" s="13" t="s">
@@ -3115,7 +3153,7 @@
       <c r="C13" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="39"/>
+      <c r="D13" s="44"/>
       <c r="E13" s="4" t="s">
         <v>16</v>
       </c>
@@ -3124,95 +3162,95 @@
       <c r="A14" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="40"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="39"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="44"/>
     </row>
     <row r="15" customHeight="1" spans="1:4">
       <c r="A15" s="17"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="39"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="44"/>
     </row>
     <row r="16" customHeight="1" spans="1:4">
       <c r="A16" s="17"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="39"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="44"/>
     </row>
     <row r="17" customHeight="1" spans="1:4">
       <c r="A17" s="17"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="39"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="44"/>
     </row>
     <row r="18" customHeight="1" spans="1:4">
       <c r="A18" s="17"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="39"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="44"/>
     </row>
     <row r="19" customHeight="1" spans="1:4">
       <c r="A19" s="17"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="39"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="44"/>
     </row>
     <row r="20" customHeight="1" spans="1:4">
       <c r="A20" s="17"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="39"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="44"/>
     </row>
     <row r="21" customHeight="1" spans="1:4">
       <c r="A21" s="17"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="39"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="44"/>
     </row>
     <row r="22" customHeight="1" spans="1:4">
       <c r="A22" s="19"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="39"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="44"/>
     </row>
     <row r="23" customHeight="1" spans="1:4">
       <c r="A23" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="40"/>
+      <c r="B23" s="45"/>
       <c r="C23" s="25"/>
-      <c r="D23" s="39"/>
+      <c r="D23" s="44"/>
     </row>
     <row r="24" customHeight="1" spans="1:4">
       <c r="A24" s="17"/>
-      <c r="B24" s="39"/>
+      <c r="B24" s="44"/>
       <c r="C24" s="25"/>
-      <c r="D24" s="39"/>
+      <c r="D24" s="44"/>
     </row>
     <row r="25" customHeight="1" spans="1:4">
       <c r="A25" s="17"/>
-      <c r="B25" s="39"/>
+      <c r="B25" s="44"/>
       <c r="C25" s="25"/>
-      <c r="D25" s="39"/>
+      <c r="D25" s="44"/>
     </row>
     <row r="26" customHeight="1" spans="1:4">
       <c r="A26" s="17"/>
-      <c r="B26" s="39"/>
+      <c r="B26" s="44"/>
       <c r="C26" s="25"/>
-      <c r="D26" s="39"/>
+      <c r="D26" s="44"/>
     </row>
     <row r="27" customHeight="1" spans="1:4">
       <c r="A27" s="17"/>
-      <c r="B27" s="40"/>
+      <c r="B27" s="45"/>
       <c r="C27" s="25"/>
-      <c r="D27" s="39"/>
+      <c r="D27" s="44"/>
     </row>
     <row r="28" customHeight="1" spans="1:4">
       <c r="A28" s="19"/>
       <c r="B28" s="28"/>
       <c r="C28" s="29"/>
-      <c r="D28" s="39"/>
+      <c r="D28" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3237,7 +3275,7 @@
   </sheetPr>
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -3269,7 +3307,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="39" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3278,10 +3316,10 @@
         <v>6</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="36"/>
+      <c r="F4" s="41"/>
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="7"/>
@@ -3316,7 +3354,7 @@
       <c r="A8" s="11">
         <v>1</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="39" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="7"/>
@@ -3329,7 +3367,7 @@
       <c r="A9" s="12">
         <v>2</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="39" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="7"/>
@@ -3342,7 +3380,7 @@
       <c r="A10" s="12">
         <v>3</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="39" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="7"/>
@@ -3398,7 +3436,7 @@
       <c r="B15" s="2">
         <v>2</v>
       </c>
-      <c r="C15" s="37">
+      <c r="C15" s="42">
         <v>2</v>
       </c>
       <c r="D15" s="2"/>
@@ -3411,7 +3449,7 @@
       <c r="B16" s="2">
         <v>1</v>
       </c>
-      <c r="C16" s="37">
+      <c r="C16" s="42">
         <v>1</v>
       </c>
       <c r="D16" s="2"/>
@@ -3424,7 +3462,7 @@
       <c r="B17" s="2">
         <v>0</v>
       </c>
-      <c r="C17" s="37">
+      <c r="C17" s="42">
         <v>0</v>
       </c>
       <c r="D17" s="2"/>
@@ -3509,7 +3547,7 @@
     </row>
     <row r="27" customHeight="1" spans="1:5">
       <c r="A27" s="17"/>
-      <c r="B27" s="33"/>
+      <c r="B27" s="38"/>
       <c r="C27" s="25"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -3574,7 +3612,7 @@
       <c r="E1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="36" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3593,7 +3631,7 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="32"/>
+      <c r="F3" s="37"/>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="7"/>
@@ -3601,7 +3639,7 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="32"/>
+      <c r="F4" s="37"/>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="4" t="s">
@@ -3609,7 +3647,7 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
-      <c r="F5" s="32"/>
+      <c r="F5" s="37"/>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="8" t="s">
@@ -3619,7 +3657,7 @@
       <c r="C6" s="10"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="32"/>
+      <c r="F6" s="37"/>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="11">
@@ -3629,7 +3667,7 @@
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
-      <c r="F7" s="32"/>
+      <c r="F7" s="37"/>
     </row>
     <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="12">
@@ -3781,7 +3819,7 @@
     </row>
     <row r="26" customHeight="1" spans="1:5">
       <c r="A26" s="17"/>
-      <c r="B26" s="33"/>
+      <c r="B26" s="38"/>
       <c r="C26" s="25"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -3823,8 +3861,8 @@
   </sheetPr>
   <dimension ref="A1:E999"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6296296296296" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="4"/>
@@ -3856,28 +3894,36 @@
         <v>4</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="7"/>
+      <c r="E3" s="7" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="7"/>
+      <c r="E4" s="7" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="7"/>
+      <c r="E5" s="7" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="6" customHeight="1" spans="1:5">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="7"/>
+      <c r="E6" s="7" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="8" t="s">
@@ -3892,7 +3938,9 @@
       <c r="A8" s="11">
         <v>1</v>
       </c>
-      <c r="B8" s="7"/>
+      <c r="B8" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="C8" s="7"/>
       <c r="D8" s="2"/>
       <c r="E8" s="7"/>
@@ -3901,7 +3949,9 @@
       <c r="A9" s="12">
         <v>2</v>
       </c>
-      <c r="B9" s="7"/>
+      <c r="B9" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="C9" s="7"/>
       <c r="D9" s="2"/>
       <c r="E9" s="7"/>
@@ -3910,14 +3960,18 @@
       <c r="A10" s="12">
         <v>3</v>
       </c>
-      <c r="B10" s="7"/>
+      <c r="B10" s="7" t="s">
+        <v>54</v>
+      </c>
       <c r="C10" s="7"/>
       <c r="D10" s="2"/>
       <c r="E10" s="7"/>
     </row>
     <row r="11" customHeight="1" spans="1:5">
       <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
+      <c r="B11" s="7" t="s">
+        <v>55</v>
+      </c>
       <c r="C11" s="7"/>
       <c r="D11" s="2"/>
       <c r="E11" s="7"/>
@@ -3957,16 +4011,29 @@
       <c r="A15" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="16"/>
+      <c r="B15" s="31">
+        <v>36</v>
+      </c>
+      <c r="C15" s="32">
+        <v>96.8</v>
+      </c>
       <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="E15" s="31" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="16" customHeight="1" spans="1:5">
       <c r="A16" s="17"/>
-      <c r="B16" s="16"/>
+      <c r="B16" s="32">
+        <v>98</v>
+      </c>
+      <c r="C16" s="33">
+        <v>36.666666667</v>
+      </c>
       <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="E16" s="31" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="17" customHeight="1" spans="1:5">
       <c r="A17" s="17"/>
@@ -4006,8 +4073,12 @@
       <c r="A22" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="23"/>
+      <c r="B22" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>58</v>
+      </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
@@ -10890,11 +10961,11 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="3" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="F1" s="3"/>
     </row>
@@ -10904,7 +10975,7 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="5" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="4" t="s">
@@ -10917,7 +10988,7 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="7"/>

--- a/Step_1-4_sheet_of_Session_10.xlsx
+++ b/Step_1-4_sheet_of_Session_10.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9120" firstSheet="1" activeTab="6"/>
+    <workbookView windowWidth="22188" windowHeight="9120" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Reverse a number" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="72">
   <si>
     <t>Problem: Find the reverse of a number between 0 to 99999. Write a function to achieve this.</t>
   </si>
@@ -279,6 +279,33 @@
   </si>
   <si>
     <t>C.I = Principal * ( (1+Rate/100 )^Time - Principal)</t>
+  </si>
+  <si>
+    <t>take input from user to calculate simple and compound interest based on standard formulae</t>
+  </si>
+  <si>
+    <t>user should enter principle rate and time to calculate the interest</t>
+  </si>
+  <si>
+    <t>and the function should return which ever the interest is beign called.</t>
+  </si>
+  <si>
+    <t>principle rate and time should not be in negative</t>
+  </si>
+  <si>
+    <t>it should be numbers not alphabets</t>
+  </si>
+  <si>
+    <t>2,2,2</t>
+  </si>
+  <si>
+    <t>SI = 0.6</t>
+  </si>
+  <si>
+    <t>CI = 2</t>
+  </si>
+  <si>
+    <t>please Enter non negative value</t>
   </si>
 </sst>
 </file>
@@ -3861,7 +3888,7 @@
   </sheetPr>
   <dimension ref="A1:E999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -10945,8 +10972,8 @@
   </sheetPr>
   <dimension ref="A1:G1009"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6296296296296" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="6"/>
@@ -10991,7 +11018,9 @@
         <v>62</v>
       </c>
       <c r="F3" s="2"/>
-      <c r="G3" s="7"/>
+      <c r="G3" s="7" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="6" t="s">
@@ -11000,7 +11029,9 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="7"/>
@@ -11009,7 +11040,9 @@
       <c r="D5" s="7"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="7"/>
+      <c r="G5" s="7" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="4" t="s">
@@ -11035,7 +11068,9 @@
       <c r="A8" s="11">
         <v>1</v>
       </c>
-      <c r="B8" s="7"/>
+      <c r="B8" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
@@ -11046,7 +11081,9 @@
       <c r="A9" s="12">
         <v>2</v>
       </c>
-      <c r="B9" s="7"/>
+      <c r="B9" s="7" t="s">
+        <v>67</v>
+      </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
@@ -11097,23 +11134,37 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:6">
+    <row r="14" customHeight="1" spans="1:7">
       <c r="A14" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="16"/>
+      <c r="B14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>69</v>
+      </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-    </row>
-    <row r="15" customHeight="1" spans="1:6">
+      <c r="G14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:7">
       <c r="A15" s="17"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="16"/>
+      <c r="B15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>70</v>
+      </c>
       <c r="D15" s="2"/>
       <c r="E15" s="18"/>
       <c r="F15" s="2"/>
+      <c r="G15" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="16" customHeight="1" spans="1:6">
       <c r="A16" s="17"/>
@@ -11175,16 +11226,24 @@
       <c r="A23" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="23"/>
+      <c r="B23" s="22">
+        <v>-1</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>71</v>
+      </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
     <row r="24" customHeight="1" spans="1:6">
       <c r="A24" s="17"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="25"/>
+      <c r="B24" s="24">
+        <v>-1</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>71</v>
+      </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
